--- a/Techademy Assignments/MySql assignments/assignment 1/tasks.xlsx
+++ b/Techademy Assignments/MySql assignments/assignment 1/tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seneca\Internship\learnings\SQL\assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seneca\Internship\learnings\java\daily tasks\Techademy Assignments\MySql assignments\assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E04E8A8-1C88-40B4-9EF3-D6B0C35B5247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E47A7F4-D57F-4E32-ABE8-5422EDBD74A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08DCA764-1053-44EA-87C9-DE1008616A87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>worker</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>angelina</t>
+  </si>
+  <si>
+    <t>jolie</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CDE8AB-5966-45C1-94E3-1A4575255520}">
-  <dimension ref="C2:P11"/>
+  <dimension ref="C2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,6 +797,38 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>70000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>37309</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1">
+        <v>37674</v>
+      </c>
+      <c r="L12">
+        <v>30000</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
